--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_34.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_34.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9993340757574923</v>
+        <v>0.9454854685263412</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8242527123092838</v>
+        <v>0.7031346043426627</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8119325707073981</v>
+        <v>0.7584949735219202</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9975526158954692</v>
+        <v>0.8153444613767178</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002771927437506043</v>
+        <v>0.1750073020305008</v>
       </c>
       <c r="G2" t="n">
-        <v>1.175222922029669</v>
+        <v>1.98514026770007</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6727062898035374</v>
+        <v>0.8638494764460787</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005486171926244481</v>
+        <v>0.2300184815853748</v>
       </c>
       <c r="J2" t="n">
-        <v>0.105257418624004</v>
+        <v>1.138556162658038</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05264909721453961</v>
+        <v>0.4183387407717588</v>
       </c>
       <c r="L2" t="n">
-        <v>1.042619151520491</v>
+        <v>0.9257674465039539</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05347826786587993</v>
+        <v>0.4249271577535948</v>
       </c>
       <c r="N2" t="n">
-        <v>141.776424749886</v>
+        <v>37.48585516008109</v>
       </c>
       <c r="O2" t="n">
-        <v>283.1115972931024</v>
+        <v>74.45043874830692</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9993059895304487</v>
+        <v>0.945401997672789</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8238181090491146</v>
+        <v>0.7031177852188967</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8126183347827801</v>
+        <v>0.7592200971307511</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9978456149227344</v>
+        <v>0.8162379708117562</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002888837107388578</v>
+        <v>0.1752752674423547</v>
       </c>
       <c r="G3" t="n">
-        <v>1.178129116031585</v>
+        <v>1.985252737258139</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6702533514687816</v>
+        <v>0.8612557513423733</v>
       </c>
       <c r="I3" t="n">
-        <v>0.004829371453109353</v>
+        <v>0.2289054703805009</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1053831738744381</v>
+        <v>1.141460795381019</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05374790328364985</v>
+        <v>0.4186588915123561</v>
       </c>
       <c r="L3" t="n">
-        <v>1.044416670051284</v>
+        <v>0.9256537840650744</v>
       </c>
       <c r="M3" t="n">
-        <v>0.05459437903217555</v>
+        <v>0.4252523505483232</v>
       </c>
       <c r="N3" t="n">
-        <v>141.693802485646</v>
+        <v>37.482795168092</v>
       </c>
       <c r="O3" t="n">
-        <v>283.0289750288624</v>
+        <v>74.44737875631782</v>
       </c>
     </row>
     <row r="4">
@@ -610,389 +610,389 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9993484150866745</v>
+        <v>0.9453145311357114</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8236323145793483</v>
+        <v>0.7030998473965622</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8133377696909538</v>
+        <v>0.7599555523015449</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9983662150760636</v>
+        <v>0.817119928339755</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002712239596970769</v>
+        <v>0.1755560601458431</v>
       </c>
       <c r="G4" t="n">
-        <v>1.179371524506416</v>
+        <v>1.985372687558686</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6676799745174771</v>
+        <v>0.858625070840585</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003662369534323543</v>
+        <v>0.2278068489531364</v>
       </c>
       <c r="J4" t="n">
-        <v>0.101392203254873</v>
+        <v>1.144385591228013</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05207916663091652</v>
+        <v>0.4189941051445033</v>
       </c>
       <c r="L4" t="n">
-        <v>1.041701434452833</v>
+        <v>0.9255346806954368</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05289936144528634</v>
+        <v>0.425592843460086</v>
       </c>
       <c r="N4" t="n">
-        <v>141.8199611316815</v>
+        <v>37.479593712106</v>
       </c>
       <c r="O4" t="n">
-        <v>283.1551336748979</v>
+        <v>74.44417730033183</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_34_3</t>
+          <t>model_1_34_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9992944429585069</v>
+        <v>0.9452229035509794</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8234628289117869</v>
+        <v>0.7030807339218996</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8132082865405418</v>
+        <v>0.7607012898751321</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9986321508395088</v>
+        <v>0.8179882361133077</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002936900021353196</v>
+        <v>0.1758502110073118</v>
       </c>
       <c r="G5" t="n">
-        <v>1.18050487594581</v>
+        <v>1.985500499451764</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6681431282386365</v>
+        <v>0.8559576107802124</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003066235352975892</v>
+        <v>0.2267252305131456</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1103455497534565</v>
+        <v>1.147330379244568</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05419317319878211</v>
+        <v>0.4193449785168672</v>
       </c>
       <c r="L5" t="n">
-        <v>1.045155650655559</v>
+        <v>0.9254099112183549</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05504666150336454</v>
+        <v>0.4259492427373199</v>
       </c>
       <c r="N5" t="n">
-        <v>141.6608013368466</v>
+        <v>37.47624544027003</v>
       </c>
       <c r="O5" t="n">
-        <v>282.995973880063</v>
+        <v>74.44082902849586</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_34_2</t>
+          <t>model_1_34_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9992803660687194</v>
+        <v>0.9451269823828771</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8234401325779414</v>
+        <v>0.7030603769798195</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8130153776747208</v>
+        <v>0.7614572734459971</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9986375899611613</v>
+        <v>0.8188429580882239</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002995495450902156</v>
+        <v>0.1761581455044705</v>
       </c>
       <c r="G6" t="n">
-        <v>1.180656646434741</v>
+        <v>1.985636626417189</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6688331520661797</v>
+        <v>0.8532535013816743</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003054042760706525</v>
+        <v>0.2256605353931743</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1115686076808478</v>
+        <v>1.150298131835277</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05473111958385427</v>
+        <v>0.4197119792244088</v>
       </c>
       <c r="L6" t="n">
-        <v>1.046056571601959</v>
+        <v>0.9252792951596625</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05559308000625248</v>
+        <v>0.4263220233391392</v>
       </c>
       <c r="N6" t="n">
-        <v>141.6212912701707</v>
+        <v>37.47274626679858</v>
       </c>
       <c r="O6" t="n">
-        <v>282.9564638133871</v>
+        <v>74.4373298550244</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_34_1</t>
+          <t>model_1_34_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9992703605007528</v>
+        <v>0.9450265709371748</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8233973629311022</v>
+        <v>0.7030387214278055</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8129665174817938</v>
+        <v>0.7622238699188111</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9986520905494312</v>
+        <v>0.8196820868355384</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003037143894679912</v>
+        <v>0.1764804950822859</v>
       </c>
       <c r="G7" t="n">
-        <v>1.180942647260091</v>
+        <v>1.985781437193221</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6690079221432023</v>
+        <v>0.8505114302482364</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003021537556422082</v>
+        <v>0.2246152641722244</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1125044850559974</v>
+        <v>1.153287513736645</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05511028846485846</v>
+        <v>0.4200958165493747</v>
       </c>
       <c r="L7" t="n">
-        <v>1.046696927951821</v>
+        <v>0.9251425646804082</v>
       </c>
       <c r="M7" t="n">
-        <v>0.05597822041810267</v>
+        <v>0.4267119057182768</v>
       </c>
       <c r="N7" t="n">
-        <v>141.5936754270151</v>
+        <v>37.46908983632842</v>
       </c>
       <c r="O7" t="n">
-        <v>282.9288479702315</v>
+        <v>74.43367342455424</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_34_0</t>
+          <t>model_1_34_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9992627175946135</v>
+        <v>0.9449215668813705</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8233920466261335</v>
+        <v>0.7030156967079324</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8131291253646438</v>
+        <v>0.7630010325933694</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9986878542536471</v>
+        <v>0.8205044597035432</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003068957695526589</v>
+        <v>0.176817588257478</v>
       </c>
       <c r="G8" t="n">
-        <v>1.180978197415895</v>
+        <v>1.985935403601031</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6684262831747949</v>
+        <v>0.8477315644238222</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002941367946067442</v>
+        <v>0.2235908651219398</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1132253767041344</v>
+        <v>1.158322402214188</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05539817411726301</v>
+        <v>0.4204968350148168</v>
       </c>
       <c r="L8" t="n">
-        <v>1.047186073944737</v>
+        <v>0.9249995804342067</v>
       </c>
       <c r="M8" t="n">
-        <v>0.05627063998175252</v>
+        <v>0.4271192398236782</v>
       </c>
       <c r="N8" t="n">
-        <v>141.5728345757767</v>
+        <v>37.46527330526435</v>
       </c>
       <c r="O8" t="n">
-        <v>282.9080071189931</v>
+        <v>74.42985689349018</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_34_4</t>
+          <t>model_1_34_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9993106372704657</v>
+        <v>0.9448117286366009</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8232073245378337</v>
+        <v>0.7029911788296401</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8125389113101508</v>
+        <v>0.7637880295223396</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9985397618969902</v>
+        <v>0.8213082594804602</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002869490765488356</v>
+        <v>0.1771702005675773</v>
       </c>
       <c r="G9" t="n">
-        <v>1.182213434870924</v>
+        <v>1.986099354766066</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6705374446251392</v>
+        <v>0.8449165220415995</v>
       </c>
       <c r="I9" t="n">
-        <v>0.003273338774871513</v>
+        <v>0.2225896018749041</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1078864410405228</v>
+        <v>1.171143117424301</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05356762796212239</v>
+        <v>0.4209159067647328</v>
       </c>
       <c r="L9" t="n">
-        <v>1.044119214690198</v>
+        <v>0.9248500134626054</v>
       </c>
       <c r="M9" t="n">
-        <v>0.05441126455454325</v>
+        <v>0.4275449115347373</v>
       </c>
       <c r="N9" t="n">
-        <v>141.7072413971631</v>
+        <v>37.46128884661514</v>
       </c>
       <c r="O9" t="n">
-        <v>283.0424139403796</v>
+        <v>74.42587243484095</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_34_5</t>
+          <t>model_1_34_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.999320755011555</v>
+        <v>0.944696890087361</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8231882329015461</v>
+        <v>0.7029650766650539</v>
       </c>
       <c r="D10" t="n">
-        <v>0.812413608127372</v>
+        <v>0.7645853444135088</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9985214305333983</v>
+        <v>0.8220921818918143</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002827375398092014</v>
+        <v>0.1775388652910606</v>
       </c>
       <c r="G10" t="n">
-        <v>1.182341100730688</v>
+        <v>1.986273900060844</v>
       </c>
       <c r="H10" t="n">
-        <v>0.670985646844443</v>
+        <v>0.842064572906861</v>
       </c>
       <c r="I10" t="n">
-        <v>0.003314431226245066</v>
+        <v>0.2216130991169321</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1070055035580291</v>
+        <v>1.18416778125661</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05317307023383184</v>
+        <v>0.4213536107488111</v>
       </c>
       <c r="L10" t="n">
-        <v>1.043471679260477</v>
+        <v>0.9246936375657682</v>
       </c>
       <c r="M10" t="n">
-        <v>0.05401049293644516</v>
+        <v>0.4279895089190214</v>
       </c>
       <c r="N10" t="n">
-        <v>141.736812837634</v>
+        <v>37.45713146929703</v>
       </c>
       <c r="O10" t="n">
-        <v>283.0719853808504</v>
+        <v>74.42171505752286</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_34_6</t>
+          <t>model_1_34_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9993285955244133</v>
+        <v>0.944576897664536</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8231713425843881</v>
+        <v>0.7029373035821895</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8122566778904456</v>
+        <v>0.7653924609291728</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9984995002706903</v>
+        <v>0.8228549346040462</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002794739054002685</v>
+        <v>0.1779240754288907</v>
       </c>
       <c r="G11" t="n">
-        <v>1.182454046359296</v>
+        <v>1.986459618793842</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6715469772025904</v>
+        <v>0.8391775639296352</v>
       </c>
       <c r="I11" t="n">
-        <v>0.003363591140040735</v>
+        <v>0.2206629666594885</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1063774090695911</v>
+        <v>1.197399699081521</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05286529158155363</v>
+        <v>0.4218104733513509</v>
       </c>
       <c r="L11" t="n">
-        <v>1.042969886437547</v>
+        <v>0.9245302436283044</v>
       </c>
       <c r="M11" t="n">
-        <v>0.05369786707805933</v>
+        <v>0.4284535666508561</v>
       </c>
       <c r="N11" t="n">
-        <v>141.7600330768999</v>
+        <v>37.45279672443903</v>
       </c>
       <c r="O11" t="n">
-        <v>283.0952056201163</v>
+        <v>74.41738031266486</v>
       </c>
     </row>
   </sheetData>
